--- a/Era uma vez em Hollywood.xlsx
+++ b/Era uma vez em Hollywood.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dorad\OneDrive\Documentos\Insper\2 Semestre\2.CienDados\Projeto2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dorad\OneDrive\Documentos\Insper\2 Semestre\2.CienDados\Projeto2_CDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BB56FA-B910-43BE-BEAB-4FA1AE0E35CB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2766641-F19B-43D7-80AE-5DDF5644015A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="483">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1667,7 +1667,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1683,6 +1683,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1692,7 +1698,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1715,11 +1721,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1729,6 +1750,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2069,8 +2093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B302" sqref="B302"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4494,1015 +4518,1624 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A201"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="127.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B45" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B46" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B47" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B51" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B52" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B53" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B54" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B55" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B56" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B57" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B58" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B59" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B60" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B61" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B62" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B63" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B64" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B65" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B66" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B67" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B68" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B69" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B70" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B71" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B72" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B73" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B74" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B75" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B76" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B77" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B78" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B79" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B80" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B81" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B82" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B83" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B84" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B85" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B86" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B87" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B88" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B89" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B90" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B91" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B92" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B93" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B94" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B95" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B96" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B97" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B98" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B99" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B100" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B101" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B102" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B103" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B104" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B105" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B106" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B107" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B108" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B109" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B110" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B111" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B112" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B113" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B114" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B115" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B116" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B117" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B118" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B119" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B120" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B121" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B122" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B123" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B124" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B125" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B126" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B127" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B128" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B129" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B130" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B131" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B132" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B133" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B134" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B135" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B136" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B137" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B138" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B139" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B140" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B141" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B142" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B143" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B144" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B145" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B146" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B147" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B148" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B149" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B150" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B151" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B152" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B153" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B154" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B155" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B156" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B157" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B158" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B159" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B160" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B161" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B162" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B163" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B164" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B165" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B166" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B167" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B168" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B169" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B170" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B171" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B172" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B173" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B174" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B175" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B176" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B177" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B178" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B179" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B180" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B181" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B182" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B183" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B184" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B185" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B186" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B187" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B188" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B189" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B190" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B191" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B192" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B193" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B194" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B195" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B196" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B197" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B198" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B199" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B200" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>481</v>
+      </c>
+      <c r="B201" s="5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Era uma vez em Hollywood.xlsx
+++ b/Era uma vez em Hollywood.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dorad\OneDrive\Documentos\Insper\2 Semestre\2.CienDados\Projeto2_CDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2766641-F19B-43D7-80AE-5DDF5644015A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4205048-3802-4FE8-8095-8B260B787852}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -1667,7 +1667,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1688,6 +1688,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1740,7 +1748,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1753,6 +1761,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2091,10 +2100,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B301"/>
+  <dimension ref="A1:C301"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2103,7 +2112,7 @@
     <col min="2" max="2" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2111,249 +2120,251 @@
         <v>482</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>148</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
       <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>239</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>250</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>270</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>268</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>209</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
       <c r="B22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>260</v>
       </c>
       <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="B26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>253</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>282</v>
       </c>
       <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>219</v>
       </c>
       <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2361,39 +2372,39 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>264</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>164</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -2401,103 +2412,103 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="3">
-        <v>1</v>
+        <v>271</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="3">
+        <v>271</v>
+      </c>
+      <c r="B42">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="3">
+        <v>181</v>
+      </c>
+      <c r="B43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="3">
+        <v>66</v>
+      </c>
+      <c r="B44">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="3">
+        <v>145</v>
+      </c>
+      <c r="B45">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="3">
-        <v>1</v>
+        <v>53</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="3">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="3">
+        <v>19</v>
+      </c>
+      <c r="B49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>202</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -2505,7 +2516,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>166</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2513,7 +2524,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2521,7 +2532,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>218</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -2529,15 +2540,15 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -2545,7 +2556,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -2553,23 +2564,23 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -2577,7 +2588,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>191</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -2585,7 +2596,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -2593,15 +2604,15 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>189</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -2609,15 +2620,15 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>238</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -2625,23 +2636,23 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>290</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -2649,23 +2660,23 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>259</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>274</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -2673,31 +2684,31 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72">
+        <v>42</v>
+      </c>
+      <c r="B72" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="B73" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>277</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>278</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -2705,23 +2716,23 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>272</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -2729,39 +2740,39 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -2769,15 +2780,15 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>203</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -2785,7 +2796,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -2793,10 +2804,10 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>201</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -2809,23 +2820,23 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>267</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>249</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -2833,23 +2844,23 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>255</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -2857,7 +2868,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2865,15 +2876,15 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>288</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -2881,7 +2892,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>243</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -2889,7 +2900,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>262</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -2897,7 +2908,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>235</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2905,23 +2916,23 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>276</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>281</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -2929,7 +2940,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -2937,39 +2948,39 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>107</v>
-      </c>
-      <c r="B108">
+        <v>204</v>
+      </c>
+      <c r="B108" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -2977,23 +2988,23 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>233</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -3001,23 +3012,23 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>289</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>214</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>256</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -3025,31 +3036,31 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>187</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -3057,7 +3068,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -3065,7 +3076,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -3073,7 +3084,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -3081,7 +3092,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -3089,7 +3100,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>247</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -3097,23 +3108,23 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -3121,7 +3132,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -3129,15 +3140,15 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -3145,15 +3156,15 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -3161,23 +3172,23 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>197</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>194</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -3185,7 +3196,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -3193,15 +3204,15 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>244</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -3209,23 +3220,23 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -3233,15 +3244,15 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>141</v>
-      </c>
-      <c r="B142">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="B142" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -3249,7 +3260,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -3257,7 +3268,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>225</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -3265,23 +3276,23 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -3289,7 +3300,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -3297,7 +3308,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -3305,7 +3316,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -3313,7 +3324,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>151</v>
+        <v>263</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -3321,15 +3332,15 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -3337,15 +3348,15 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -3353,7 +3364,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -3361,31 +3372,31 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -3393,7 +3404,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -3401,15 +3412,15 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>162</v>
+        <v>265</v>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>163</v>
+        <v>266</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -3417,7 +3428,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>164</v>
+        <v>71</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -3425,31 +3436,31 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="B166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>168</v>
+        <v>248</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -3457,15 +3468,15 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>169</v>
+        <v>232</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -3473,7 +3484,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -3481,7 +3492,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>171</v>
+        <v>222</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -3489,15 +3500,15 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -3505,15 +3516,15 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>174</v>
+        <v>287</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>175</v>
+        <v>17</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -3521,7 +3532,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -3529,23 +3540,23 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>177</v>
+        <v>32</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>178</v>
-      </c>
-      <c r="B180">
+        <v>48</v>
+      </c>
+      <c r="B180" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -3553,7 +3564,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>180</v>
+        <v>251</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -3561,7 +3572,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>181</v>
+        <v>286</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -3569,7 +3580,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>182</v>
+        <v>96</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -3577,31 +3588,31 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>185</v>
+        <v>11</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>186</v>
+        <v>291</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -3609,15 +3620,15 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>187</v>
+        <v>51</v>
       </c>
       <c r="B189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>188</v>
+        <v>73</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -3625,7 +3636,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -3633,7 +3644,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>190</v>
+        <v>8</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -3641,7 +3652,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>191</v>
+        <v>121</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -3649,7 +3660,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>192</v>
+        <v>119</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -3657,7 +3668,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -3665,7 +3676,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="B196">
         <v>1</v>
@@ -3673,7 +3684,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -3681,7 +3692,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>196</v>
+        <v>117</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -3689,7 +3700,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>197</v>
+        <v>23</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -3697,7 +3708,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>198</v>
+        <v>285</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -3705,15 +3716,15 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>199</v>
+        <v>284</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="B202">
         <v>1</v>
@@ -3721,7 +3732,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -3729,7 +3740,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>202</v>
+        <v>36</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -3737,7 +3748,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -3745,15 +3756,15 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>204</v>
-      </c>
-      <c r="B206" s="4">
-        <v>0</v>
+        <v>236</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -3761,7 +3772,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -3769,7 +3780,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -3777,15 +3788,15 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="B210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="B211">
         <v>0</v>
@@ -3793,7 +3804,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -3801,7 +3812,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="B213">
         <v>1</v>
@@ -3809,7 +3820,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>212</v>
+        <v>83</v>
       </c>
       <c r="B214">
         <v>1</v>
@@ -3817,7 +3828,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -3825,7 +3836,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -3833,7 +3844,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -3841,39 +3852,39 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>216</v>
+        <v>4</v>
       </c>
       <c r="B218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>217</v>
-      </c>
-      <c r="B219">
+        <v>45</v>
+      </c>
+      <c r="B219" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>218</v>
+        <v>283</v>
       </c>
       <c r="B220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>219</v>
+        <v>1</v>
       </c>
       <c r="B221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B222">
         <v>1</v>
@@ -3881,7 +3892,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -3889,7 +3900,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>222</v>
+        <v>59</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -3897,7 +3908,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>223</v>
+        <v>140</v>
       </c>
       <c r="B225">
         <v>1</v>
@@ -3905,15 +3916,15 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>224</v>
+        <v>269</v>
       </c>
       <c r="B226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -3921,7 +3932,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>226</v>
+        <v>68</v>
       </c>
       <c r="B228">
         <v>1</v>
@@ -3929,15 +3940,15 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>227</v>
+        <v>129</v>
       </c>
       <c r="B229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>228</v>
+        <v>128</v>
       </c>
       <c r="B230">
         <v>1</v>
@@ -3945,7 +3956,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>229</v>
+        <v>105</v>
       </c>
       <c r="B231">
         <v>1</v>
@@ -3953,15 +3964,15 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>230</v>
+        <v>93</v>
       </c>
       <c r="B232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -3969,7 +3980,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="B234">
         <v>0</v>
@@ -3977,7 +3988,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B235">
         <v>0</v>
@@ -3985,7 +3996,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="B236">
         <v>0</v>
@@ -3993,39 +4004,39 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="B237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>236</v>
+        <v>159</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>237</v>
+        <v>159</v>
       </c>
       <c r="B239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>238</v>
+        <v>159</v>
       </c>
       <c r="B240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="B241">
         <v>0</v>
@@ -4033,15 +4044,15 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>240</v>
+        <v>78</v>
       </c>
       <c r="B242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>241</v>
+        <v>99</v>
       </c>
       <c r="B243">
         <v>0</v>
@@ -4049,7 +4060,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>242</v>
+        <v>7</v>
       </c>
       <c r="B244">
         <v>1</v>
@@ -4057,7 +4068,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>243</v>
+        <v>16</v>
       </c>
       <c r="B245">
         <v>0</v>
@@ -4065,15 +4076,15 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>244</v>
+        <v>120</v>
       </c>
       <c r="B246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>245</v>
+        <v>22</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -4081,15 +4092,15 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>246</v>
+        <v>22</v>
       </c>
       <c r="B248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>247</v>
+        <v>104</v>
       </c>
       <c r="B249">
         <v>0</v>
@@ -4097,7 +4108,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>69</v>
+        <v>168</v>
       </c>
       <c r="B250">
         <v>1</v>
@@ -4105,15 +4116,15 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>248</v>
+        <v>20</v>
       </c>
       <c r="B251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>249</v>
+        <v>75</v>
       </c>
       <c r="B252">
         <v>0</v>
@@ -4121,15 +4132,15 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="B253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>251</v>
+        <v>24</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -4137,23 +4148,23 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>159</v>
+        <v>24</v>
       </c>
       <c r="B255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>252</v>
+        <v>29</v>
       </c>
       <c r="B256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>253</v>
+        <v>85</v>
       </c>
       <c r="B257">
         <v>1</v>
@@ -4161,31 +4172,31 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="B258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="B259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>256</v>
-      </c>
-      <c r="B260">
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="B260" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>257</v>
+        <v>6</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -4193,7 +4204,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>258</v>
+        <v>126</v>
       </c>
       <c r="B262">
         <v>1</v>
@@ -4201,7 +4212,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>259</v>
+        <v>116</v>
       </c>
       <c r="B263">
         <v>0</v>
@@ -4209,23 +4220,23 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>260</v>
+        <v>173</v>
       </c>
       <c r="B264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>261</v>
+        <v>147</v>
       </c>
       <c r="B265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>262</v>
+        <v>163</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -4233,7 +4244,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>263</v>
+        <v>98</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -4241,15 +4252,15 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="B268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="B269">
         <v>1</v>
@@ -4257,15 +4268,15 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>265</v>
+        <v>69</v>
       </c>
       <c r="B270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>266</v>
+        <v>193</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -4273,7 +4284,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>267</v>
+        <v>155</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -4281,7 +4292,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>22</v>
+        <v>208</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -4289,23 +4300,23 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>159</v>
+        <v>257</v>
       </c>
       <c r="B274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>268</v>
+        <v>101</v>
       </c>
       <c r="B275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>269</v>
+        <v>216</v>
       </c>
       <c r="B276">
         <v>0</v>
@@ -4313,15 +4324,15 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="B277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>241</v>
+        <v>26</v>
       </c>
       <c r="B278">
         <v>0</v>
@@ -4329,7 +4340,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>271</v>
+        <v>9</v>
       </c>
       <c r="B279">
         <v>0</v>
@@ -4337,7 +4348,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>272</v>
+        <v>171</v>
       </c>
       <c r="B280">
         <v>1</v>
@@ -4345,7 +4356,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>273</v>
+        <v>146</v>
       </c>
       <c r="B281">
         <v>0</v>
@@ -4353,31 +4364,31 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>274</v>
+        <v>206</v>
       </c>
       <c r="B282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>275</v>
+        <v>72</v>
       </c>
       <c r="B283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>276</v>
+        <v>217</v>
       </c>
       <c r="B284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>277</v>
+        <v>127</v>
       </c>
       <c r="B285">
         <v>1</v>
@@ -4385,15 +4396,15 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>241</v>
+        <v>25</v>
       </c>
       <c r="B286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>278</v>
+        <v>186</v>
       </c>
       <c r="B287">
         <v>1</v>
@@ -4401,7 +4412,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>279</v>
+        <v>49</v>
       </c>
       <c r="B288">
         <v>1</v>
@@ -4409,47 +4420,47 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>280</v>
-      </c>
-      <c r="B289">
-        <v>1</v>
+        <v>41</v>
+      </c>
+      <c r="B289" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>281</v>
+        <v>3</v>
       </c>
       <c r="B290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>282</v>
+        <v>57</v>
       </c>
       <c r="B291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>271</v>
+        <v>223</v>
       </c>
       <c r="B292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>283</v>
+        <v>67</v>
       </c>
       <c r="B293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="B294">
         <v>0</v>
@@ -4457,7 +4468,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>285</v>
+        <v>58</v>
       </c>
       <c r="B295">
         <v>1</v>
@@ -4465,7 +4476,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>286</v>
+        <v>172</v>
       </c>
       <c r="B296">
         <v>1</v>
@@ -4473,46 +4484,50 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>287</v>
-      </c>
-      <c r="B297">
+        <v>40</v>
+      </c>
+      <c r="B297" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>288</v>
+        <v>15</v>
       </c>
       <c r="B298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>289</v>
+        <v>21</v>
       </c>
       <c r="B299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>290</v>
+        <v>86</v>
       </c>
       <c r="B300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>291</v>
+        <v>230</v>
       </c>
       <c r="B301">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B301">
+    <sortCondition ref="A2:A301"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4520,8 +4535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4540,7 +4555,7 @@
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>293</v>
+        <v>353</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -4548,15 +4563,15 @@
     </row>
     <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>295</v>
+        <v>402</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -4564,23 +4579,23 @@
     </row>
     <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="B5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>297</v>
+        <v>433</v>
       </c>
       <c r="B6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>298</v>
+        <v>428</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>
@@ -4588,7 +4603,7 @@
     </row>
     <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>299</v>
+        <v>479</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -4596,79 +4611,79 @@
     </row>
     <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>300</v>
+        <v>367</v>
       </c>
       <c r="B9" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B10" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="B11" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>303</v>
+        <v>464</v>
       </c>
       <c r="B12" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>304</v>
+        <v>431</v>
       </c>
       <c r="B13" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>305</v>
+        <v>476</v>
       </c>
       <c r="B14" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>306</v>
+        <v>359</v>
       </c>
       <c r="B15" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>307</v>
+        <v>370</v>
       </c>
       <c r="B16" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>308</v>
+        <v>475</v>
       </c>
       <c r="B17" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B18" s="5">
         <v>0</v>
@@ -4676,15 +4691,15 @@
     </row>
     <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>310</v>
+        <v>385</v>
       </c>
       <c r="B19" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="B20" s="5">
         <v>0</v>
@@ -4692,23 +4707,23 @@
     </row>
     <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="B21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>313</v>
+        <v>461</v>
       </c>
       <c r="B22" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B23" s="5">
         <v>0</v>
@@ -4716,15 +4731,15 @@
     </row>
     <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>315</v>
+        <v>387</v>
       </c>
       <c r="B24" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="B25" s="5">
         <v>1</v>
@@ -4732,15 +4747,15 @@
     </row>
     <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>317</v>
+        <v>423</v>
       </c>
       <c r="B26" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>318</v>
+        <v>413</v>
       </c>
       <c r="B27" s="5">
         <v>1</v>
@@ -4748,23 +4763,23 @@
     </row>
     <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>319</v>
+        <v>394</v>
       </c>
       <c r="B28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>320</v>
+        <v>458</v>
       </c>
       <c r="B29" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>321</v>
+        <v>406</v>
       </c>
       <c r="B30" s="5">
         <v>1</v>
@@ -4772,7 +4787,7 @@
     </row>
     <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="B31" s="5">
         <v>1</v>
@@ -4780,23 +4795,23 @@
     </row>
     <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>323</v>
+        <v>473</v>
       </c>
       <c r="B32" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>324</v>
+        <v>432</v>
       </c>
       <c r="B33" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>325</v>
+        <v>436</v>
       </c>
       <c r="B34" s="5">
         <v>1</v>
@@ -4804,7 +4819,7 @@
     </row>
     <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>326</v>
+        <v>416</v>
       </c>
       <c r="B35" s="5">
         <v>1</v>
@@ -4812,7 +4827,7 @@
     </row>
     <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>327</v>
+        <v>455</v>
       </c>
       <c r="B36" s="5">
         <v>0</v>
@@ -4820,15 +4835,15 @@
     </row>
     <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>328</v>
+        <v>467</v>
       </c>
       <c r="B37" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>329</v>
+        <v>457</v>
       </c>
       <c r="B38" s="5">
         <v>1</v>
@@ -4836,31 +4851,31 @@
     </row>
     <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>330</v>
+        <v>407</v>
       </c>
       <c r="B39" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>331</v>
+        <v>379</v>
       </c>
       <c r="B40" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="B41" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="B42" s="5">
         <v>0</v>
@@ -4868,7 +4883,7 @@
     </row>
     <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>334</v>
+        <v>452</v>
       </c>
       <c r="B43" s="5">
         <v>0</v>
@@ -4876,23 +4891,23 @@
     </row>
     <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="B44" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="B45" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>337</v>
+        <v>438</v>
       </c>
       <c r="B46" s="5">
         <v>0</v>
@@ -4900,15 +4915,15 @@
     </row>
     <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="B47" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>339</v>
+        <v>304</v>
       </c>
       <c r="B48" s="5">
         <v>1</v>
@@ -4916,15 +4931,15 @@
     </row>
     <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>340</v>
+        <v>445</v>
       </c>
       <c r="B49" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B50" s="5">
         <v>1</v>
@@ -4932,15 +4947,15 @@
     </row>
     <row r="51" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>320</v>
       </c>
       <c r="B51" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>342</v>
+        <v>418</v>
       </c>
       <c r="B52" s="5">
         <v>1</v>
@@ -4948,31 +4963,31 @@
     </row>
     <row r="53" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B53" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="B54" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>345</v>
+        <v>478</v>
       </c>
       <c r="B55" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="B56" s="5">
         <v>1</v>
@@ -4980,7 +4995,7 @@
     </row>
     <row r="57" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>347</v>
+        <v>462</v>
       </c>
       <c r="B57" s="5">
         <v>1</v>
@@ -4988,23 +5003,23 @@
     </row>
     <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="B58" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="B59" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>350</v>
+        <v>395</v>
       </c>
       <c r="B60" s="5">
         <v>0</v>
@@ -5012,7 +5027,7 @@
     </row>
     <row r="61" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>351</v>
+        <v>450</v>
       </c>
       <c r="B61" s="5">
         <v>0</v>
@@ -5020,7 +5035,7 @@
     </row>
     <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="B62" s="5">
         <v>1</v>
@@ -5028,111 +5043,111 @@
     </row>
     <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="B63" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>354</v>
+        <v>314</v>
       </c>
       <c r="B64" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="B65" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B66" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>357</v>
+        <v>439</v>
       </c>
       <c r="B67" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>358</v>
+        <v>331</v>
       </c>
       <c r="B68" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>359</v>
+        <v>471</v>
       </c>
       <c r="B69" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="B70" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>361</v>
+        <v>447</v>
       </c>
       <c r="B71" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="B72" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B73" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>364</v>
+        <v>437</v>
       </c>
       <c r="B74" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>396</v>
       </c>
       <c r="B75" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="B76" s="5">
         <v>1</v>
@@ -5140,15 +5155,15 @@
     </row>
     <row r="77" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="B77" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>367</v>
+        <v>403</v>
       </c>
       <c r="B78" s="5">
         <v>0</v>
@@ -5156,7 +5171,7 @@
     </row>
     <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>368</v>
+        <v>412</v>
       </c>
       <c r="B79" s="5">
         <v>1</v>
@@ -5164,7 +5179,7 @@
     </row>
     <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>369</v>
+        <v>328</v>
       </c>
       <c r="B80" s="5">
         <v>1</v>
@@ -5172,7 +5187,7 @@
     </row>
     <row r="81" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B81" s="5">
         <v>0</v>
@@ -5180,15 +5195,15 @@
     </row>
     <row r="82" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="B82" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>372</v>
+        <v>297</v>
       </c>
       <c r="B83" s="5">
         <v>1</v>
@@ -5196,10 +5211,10 @@
     </row>
     <row r="84" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="B84" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5212,7 +5227,7 @@
     </row>
     <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>375</v>
+        <v>444</v>
       </c>
       <c r="B86" s="5">
         <v>1</v>
@@ -5220,7 +5235,7 @@
     </row>
     <row r="87" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>376</v>
+        <v>325</v>
       </c>
       <c r="B87" s="5">
         <v>1</v>
@@ -5228,7 +5243,7 @@
     </row>
     <row r="88" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B88" s="5">
         <v>1</v>
@@ -5236,7 +5251,7 @@
     </row>
     <row r="89" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>231</v>
+        <v>404</v>
       </c>
       <c r="B89" s="5">
         <v>0</v>
@@ -5244,34 +5259,34 @@
     </row>
     <row r="90" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>378</v>
+        <v>456</v>
       </c>
       <c r="B90" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>379</v>
+        <v>332</v>
       </c>
       <c r="B91" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B92" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>381</v>
+        <v>318</v>
       </c>
       <c r="B93" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5284,7 +5299,7 @@
     </row>
     <row r="95" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>383</v>
+        <v>442</v>
       </c>
       <c r="B95" s="5">
         <v>0</v>
@@ -5292,7 +5307,7 @@
     </row>
     <row r="96" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>384</v>
+        <v>348</v>
       </c>
       <c r="B96" s="5">
         <v>0</v>
@@ -5300,7 +5315,7 @@
     </row>
     <row r="97" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>385</v>
+        <v>435</v>
       </c>
       <c r="B97" s="5">
         <v>0</v>
@@ -5308,7 +5323,7 @@
     </row>
     <row r="98" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>386</v>
+        <v>300</v>
       </c>
       <c r="B98" s="5">
         <v>1</v>
@@ -5316,7 +5331,7 @@
     </row>
     <row r="99" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>387</v>
+        <v>360</v>
       </c>
       <c r="B99" s="5">
         <v>0</v>
@@ -5324,7 +5339,7 @@
     </row>
     <row r="100" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B100" s="5">
         <v>0</v>
@@ -5332,7 +5347,7 @@
     </row>
     <row r="101" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>389</v>
+        <v>481</v>
       </c>
       <c r="B101" s="5">
         <v>1</v>
@@ -5340,23 +5355,23 @@
     </row>
     <row r="102" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>390</v>
+        <v>319</v>
       </c>
       <c r="B102" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>391</v>
+        <v>448</v>
       </c>
       <c r="B103" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="B104" s="5">
         <v>0</v>
@@ -5364,7 +5379,7 @@
     </row>
     <row r="105" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>393</v>
+        <v>460</v>
       </c>
       <c r="B105" s="5">
         <v>0</v>
@@ -5372,23 +5387,23 @@
     </row>
     <row r="106" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>394</v>
+        <v>326</v>
       </c>
       <c r="B106" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>395</v>
+        <v>347</v>
       </c>
       <c r="B107" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="B108" s="5">
         <v>1</v>
@@ -5396,7 +5411,7 @@
     </row>
     <row r="109" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>397</v>
+        <v>313</v>
       </c>
       <c r="B109" s="5">
         <v>1</v>
@@ -5404,31 +5419,31 @@
     </row>
     <row r="110" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>398</v>
+        <v>315</v>
       </c>
       <c r="B110" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="B111" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>116</v>
+        <v>316</v>
       </c>
       <c r="B112" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>400</v>
+        <v>302</v>
       </c>
       <c r="B113" s="5">
         <v>1</v>
@@ -5436,7 +5451,7 @@
     </row>
     <row r="114" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>401</v>
+        <v>340</v>
       </c>
       <c r="B114" s="5">
         <v>0</v>
@@ -5444,23 +5459,23 @@
     </row>
     <row r="115" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B115" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>403</v>
+        <v>341</v>
       </c>
       <c r="B116" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="B117" s="5">
         <v>0</v>
@@ -5468,15 +5483,15 @@
     </row>
     <row r="118" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>405</v>
+        <v>346</v>
       </c>
       <c r="B118" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>242</v>
+        <v>430</v>
       </c>
       <c r="B119" s="5">
         <v>1</v>
@@ -5484,7 +5499,7 @@
     </row>
     <row r="120" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>406</v>
+        <v>364</v>
       </c>
       <c r="B120" s="5">
         <v>1</v>
@@ -5492,15 +5507,15 @@
     </row>
     <row r="121" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="B121" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B122" s="5">
         <v>1</v>
@@ -5508,7 +5523,7 @@
     </row>
     <row r="123" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>409</v>
+        <v>366</v>
       </c>
       <c r="B123" s="5">
         <v>1</v>
@@ -5516,7 +5531,7 @@
     </row>
     <row r="124" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>410</v>
+        <v>357</v>
       </c>
       <c r="B124" s="5">
         <v>0</v>
@@ -5524,7 +5539,7 @@
     </row>
     <row r="125" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="B125" s="5">
         <v>0</v>
@@ -5532,7 +5547,7 @@
     </row>
     <row r="126" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="B126" s="5">
         <v>1</v>
@@ -5540,15 +5555,15 @@
     </row>
     <row r="127" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="B127" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B128" s="5">
         <v>0</v>
@@ -5556,23 +5571,23 @@
     </row>
     <row r="129" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>415</v>
+        <v>472</v>
       </c>
       <c r="B129" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>416</v>
+        <v>327</v>
       </c>
       <c r="B130" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>417</v>
+        <v>299</v>
       </c>
       <c r="B131" s="5">
         <v>0</v>
@@ -5580,15 +5595,15 @@
     </row>
     <row r="132" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>418</v>
+        <v>453</v>
       </c>
       <c r="B132" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B133" s="5">
         <v>0</v>
@@ -5596,7 +5611,7 @@
     </row>
     <row r="134" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>420</v>
+        <v>119</v>
       </c>
       <c r="B134" s="5">
         <v>0</v>
@@ -5604,15 +5619,15 @@
     </row>
     <row r="135" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>421</v>
+        <v>375</v>
       </c>
       <c r="B135" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B136" s="5">
         <v>1</v>
@@ -5620,15 +5635,15 @@
     </row>
     <row r="137" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="B137" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>424</v>
+        <v>470</v>
       </c>
       <c r="B138" s="5">
         <v>1</v>
@@ -5636,7 +5651,7 @@
     </row>
     <row r="139" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="B139" s="5">
         <v>1</v>
@@ -5644,31 +5659,31 @@
     </row>
     <row r="140" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>159</v>
+        <v>468</v>
       </c>
       <c r="B140" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>426</v>
+        <v>388</v>
       </c>
       <c r="B141" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="B142" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>427</v>
+        <v>362</v>
       </c>
       <c r="B143" s="5">
         <v>0</v>
@@ -5676,7 +5691,7 @@
     </row>
     <row r="144" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>428</v>
+        <v>335</v>
       </c>
       <c r="B144" s="5">
         <v>0</v>
@@ -5684,15 +5699,15 @@
     </row>
     <row r="145" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B145" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>430</v>
+        <v>323</v>
       </c>
       <c r="B146" s="5">
         <v>1</v>
@@ -5700,15 +5715,15 @@
     </row>
     <row r="147" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>431</v>
+        <v>324</v>
       </c>
       <c r="B147" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="B148" s="5">
         <v>0</v>
@@ -5716,7 +5731,7 @@
     </row>
     <row r="149" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>433</v>
+        <v>294</v>
       </c>
       <c r="B149" s="5">
         <v>0</v>
@@ -5724,23 +5739,23 @@
     </row>
     <row r="150" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>434</v>
+        <v>390</v>
       </c>
       <c r="B150" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>435</v>
+        <v>339</v>
       </c>
       <c r="B151" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="B152" s="5">
         <v>1</v>
@@ -5748,7 +5763,7 @@
     </row>
     <row r="153" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>437</v>
+        <v>469</v>
       </c>
       <c r="B153" s="5">
         <v>0</v>
@@ -5756,7 +5771,7 @@
     </row>
     <row r="154" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>438</v>
+        <v>384</v>
       </c>
       <c r="B154" s="5">
         <v>0</v>
@@ -5764,7 +5779,7 @@
     </row>
     <row r="155" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B155" s="5">
         <v>1</v>
@@ -5772,15 +5787,15 @@
     </row>
     <row r="156" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B156" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>441</v>
+        <v>345</v>
       </c>
       <c r="B157" s="5">
         <v>0</v>
@@ -5788,7 +5803,7 @@
     </row>
     <row r="158" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="B158" s="5">
         <v>0</v>
@@ -5796,23 +5811,23 @@
     </row>
     <row r="159" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>443</v>
+        <v>380</v>
       </c>
       <c r="B159" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>444</v>
+        <v>381</v>
       </c>
       <c r="B160" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>44</v>
+        <v>414</v>
       </c>
       <c r="B161" s="5">
         <v>0</v>
@@ -5820,7 +5835,7 @@
     </row>
     <row r="162" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>445</v>
+        <v>307</v>
       </c>
       <c r="B162" s="5">
         <v>1</v>
@@ -5828,15 +5843,15 @@
     </row>
     <row r="163" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>446</v>
+        <v>159</v>
       </c>
       <c r="B163" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>447</v>
+        <v>78</v>
       </c>
       <c r="B164" s="5">
         <v>0</v>
@@ -5844,23 +5859,23 @@
     </row>
     <row r="165" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>448</v>
+        <v>78</v>
       </c>
       <c r="B165" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>449</v>
+        <v>99</v>
       </c>
       <c r="B166" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>450</v>
+        <v>344</v>
       </c>
       <c r="B167" s="5">
         <v>0</v>
@@ -5868,15 +5883,15 @@
     </row>
     <row r="168" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>451</v>
+        <v>354</v>
       </c>
       <c r="B168" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>119</v>
+        <v>420</v>
       </c>
       <c r="B169" s="5">
         <v>0</v>
@@ -5884,23 +5899,23 @@
     </row>
     <row r="170" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>452</v>
+        <v>317</v>
       </c>
       <c r="B170" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>453</v>
+        <v>343</v>
       </c>
       <c r="B171" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>454</v>
+        <v>231</v>
       </c>
       <c r="B172" s="5">
         <v>0</v>
@@ -5908,15 +5923,15 @@
     </row>
     <row r="173" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>57</v>
+        <v>242</v>
       </c>
       <c r="B173" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>455</v>
+        <v>44</v>
       </c>
       <c r="B174" s="5">
         <v>0</v>
@@ -5924,23 +5939,23 @@
     </row>
     <row r="175" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>456</v>
+        <v>349</v>
       </c>
       <c r="B175" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>457</v>
+        <v>116</v>
       </c>
       <c r="B176" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>458</v>
+        <v>116</v>
       </c>
       <c r="B177" s="5">
         <v>0</v>
@@ -5948,7 +5963,7 @@
     </row>
     <row r="178" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>459</v>
+        <v>480</v>
       </c>
       <c r="B178" s="5">
         <v>0</v>
@@ -5956,7 +5971,7 @@
     </row>
     <row r="179" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>460</v>
+        <v>391</v>
       </c>
       <c r="B179" s="5">
         <v>0</v>
@@ -5964,23 +5979,23 @@
     </row>
     <row r="180" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>461</v>
+        <v>369</v>
       </c>
       <c r="B180" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="B181" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B182" s="5">
         <v>0</v>
@@ -5988,39 +6003,39 @@
     </row>
     <row r="183" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>464</v>
+        <v>361</v>
       </c>
       <c r="B183" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>465</v>
+        <v>336</v>
       </c>
       <c r="B184" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>466</v>
+        <v>427</v>
       </c>
       <c r="B185" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>467</v>
+        <v>329</v>
       </c>
       <c r="B186" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>468</v>
+        <v>342</v>
       </c>
       <c r="B187" s="5">
         <v>1</v>
@@ -6028,7 +6043,7 @@
     </row>
     <row r="188" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>99</v>
+        <v>351</v>
       </c>
       <c r="B188" s="5">
         <v>0</v>
@@ -6036,39 +6051,39 @@
     </row>
     <row r="189" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>469</v>
+        <v>377</v>
       </c>
       <c r="B189" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>470</v>
+        <v>410</v>
       </c>
       <c r="B190" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="B191" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>472</v>
+        <v>305</v>
       </c>
       <c r="B192" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>473</v>
+        <v>57</v>
       </c>
       <c r="B193" s="5">
         <v>0</v>
@@ -6076,7 +6091,7 @@
     </row>
     <row r="194" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>474</v>
+        <v>311</v>
       </c>
       <c r="B194" s="5">
         <v>0</v>
@@ -6084,7 +6099,7 @@
     </row>
     <row r="195" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>475</v>
+        <v>421</v>
       </c>
       <c r="B195" s="5">
         <v>0</v>
@@ -6092,7 +6107,7 @@
     </row>
     <row r="196" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B196" s="5">
         <v>0</v>
@@ -6100,45 +6115,48 @@
     </row>
     <row r="197" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="B197" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B198" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>479</v>
+        <v>400</v>
       </c>
       <c r="B199" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>480</v>
+        <v>293</v>
       </c>
       <c r="B200" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="B201" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B201">
+    <sortCondition ref="A2:A201"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>